--- a/data/processed/dictionary.xlsx
+++ b/data/processed/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Professional Files\Works\Courses\Openwashdata R\data\JMP data\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D9E4E5-F0F5-48FF-98F2-C65746EDCD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80927920-4F15-45BE-8876-B6C3BF32B8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11850" yWindow="60" windowWidth="7785" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{4A592950-2B94-4593-A41C-531BBD852F9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A592950-2B94-4593-A41C-531BBD852F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="WaterService_vs_GDP_ASEAN" sheetId="1" r:id="rId1"/>
@@ -93,15 +93,9 @@
     <t>residence</t>
   </si>
   <si>
-    <t>Urban-rural classification of household as defined by the US Census Bureau, with "national" classification added to define the drinking water access on a national level</t>
-  </si>
-  <si>
     <t>levels_waterservice</t>
   </si>
   <si>
-    <t>The JMP ladder to compare service levels across countries (safely managed, basic, limited, unimproved, surface water), with "improved" level added to differentiate "piped" and "non-piped" service in method_waterservice variable</t>
-  </si>
-  <si>
     <t>method_waterservice</t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>Percentage of households in urban area for each region</t>
+  </si>
+  <si>
+    <t>Urban-rural classification of household as defined by the US Census Bureau, with national classification added to define the drinking water access on a national level</t>
+  </si>
+  <si>
+    <t>The JMP ladder to compare service levels across countries (safely managed, basic, limited, unimproved, surface water), with "improved" level added to differentiate piped and non-piped service in method_waterservice variable</t>
   </si>
 </sst>
 </file>
@@ -604,12 +604,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A718CC56-6443-4375-8DB4-27167BB65CA4}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C41" sqref="C41"/>
       <selection pane="topRight" activeCell="C41" sqref="C41"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +692,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,39 +703,39 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +747,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4EC6EE-7F47-4397-9ABE-902A34874F85}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C41" sqref="C41"/>
       <selection pane="topRight" activeCell="C41" sqref="C41"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,10 +811,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,39 +822,39 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
